--- a/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
+++ b/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{057DFB15-F45B-4CA0-87BA-AE5FF4A90584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40547C30-2A91-4B08-A4C4-D2AB73011A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F68E25A3-1614-4B4C-9D10-4D627F1CB972}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>U, kV</t>
   </si>
@@ -55,12 +55,69 @@
   <si>
     <t xml:space="preserve">R = </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> =cot(L/A)</t>
+    </r>
+  </si>
+  <si>
+    <t>Z = sqrt(A^2 + L^2), cm</t>
+  </si>
+  <si>
+    <r>
+      <t>H = (Z/2) * tan(45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+β)</t>
+    </r>
+  </si>
+  <si>
+    <t>R = sqrt(H^2 + (Z/2)^2)</t>
+  </si>
+  <si>
+    <t>B, mT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +125,29 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -111,16 +191,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -435,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F13E2E1-4CF3-4388-9F96-88EFF9675606}">
-  <dimension ref="C3:F17"/>
+  <dimension ref="C3:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,214 +535,476 @@
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="3" t="s">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="4">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
         <v>2.4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>0.52700000000000002</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0.59599999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
+      <c r="G6" s="1">
+        <f xml:space="preserve"> (0.0034669 *D6)*1000</f>
+        <v>1.5497043000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <f xml:space="preserve"> (0.0034669 *E6)*1000</f>
+        <v>1.8270563000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <f xml:space="preserve"> (0.0034669 *F6)*1000</f>
+        <v>2.0662724000000003</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
         <v>2.6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>0.47</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0.627</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G16" si="0" xml:space="preserve"> (0.0034669 *D7)*1000</f>
+        <v>1.629443</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H16" si="1" xml:space="preserve"> (0.0034669 *E7)*1000</f>
+        <v>1.8686591000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I16" si="2" xml:space="preserve"> (0.0034669 *F7)*1000</f>
+        <v>2.1737462999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <f xml:space="preserve"> SQRT((80^2)+(40^2))</f>
+        <v>89.442719099991592</v>
+      </c>
+      <c r="K7" s="1">
+        <f xml:space="preserve"> SQRT((80^2)+(35^2))</f>
+        <v>87.321245982864909</v>
+      </c>
+      <c r="L7" s="1">
+        <f xml:space="preserve"> SQRT((80^2)+(30^2))</f>
+        <v>85.440037453175307</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
         <v>2.8</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>0.49099999999999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7022479000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9761330000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>2.288154</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>0.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7334500000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0212026999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3574920000000001</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
         <v>3.2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>0.51200000000000001</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0.69299999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="4">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7750528000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0870737999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4025616999999997</v>
+      </c>
+      <c r="J10" s="1">
+        <f xml:space="preserve"> _xlfn.COT((40/80))</f>
+        <v>1.830487721712452</v>
+      </c>
+      <c r="K10" s="1">
+        <f xml:space="preserve"> _xlfn.COT((35/80))</f>
+        <v>2.1379854736346955</v>
+      </c>
+      <c r="L10" s="1">
+        <f xml:space="preserve"> _xlfn.COT((30/80))</f>
+        <v>2.5404788730243872</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
         <v>3.4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>0.53100000000000003</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.61399999999999999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0.71099999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="4">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8409239000000002</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1286765999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4649658999999997</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
         <v>3.6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>0.54</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>0.63</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>0.73099999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="4">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8721260000000002</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1841469999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5343039000000003</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
         <v>3.8</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>0.56599999999999995</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>0.65900000000000003</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>0.752</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="4">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9622654000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2846871000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6071088000000002</v>
+      </c>
+      <c r="J13" s="1">
+        <f>((J7/2) * (TAN(RADIANS(45+J10))))</f>
+        <v>47.674221769721129</v>
+      </c>
+      <c r="K13" s="1">
+        <f>((K7/2) * (TAN(RADIANS(45+K10))))</f>
+        <v>47.04693709188254</v>
+      </c>
+      <c r="L13" s="1">
+        <f>((L7/2) * (TAN(RADIANS(45+L10))))</f>
+        <v>46.686896371914941</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>0.58099999999999996</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>0.67</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>0.77300000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="4">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0142688999999998</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3228230000000005</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6799137000000002</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
         <v>4.2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>0.58799999999999997</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="4">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0385371999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3713596000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7388510000000004</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>0.61099999999999999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>0.71</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>0.80600000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="4">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1182759</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4614989999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7943214000000003</v>
+      </c>
+      <c r="J16" s="1">
+        <f xml:space="preserve"> SQRT((J13^2)+((J7/2)^2))</f>
+        <v>65.366898514068666</v>
+      </c>
+      <c r="K16" s="1">
+        <f xml:space="preserve"> SQRT((K13^2)+((K7/2)^2))</f>
+        <v>64.184611003943559</v>
+      </c>
+      <c r="L16" s="1">
+        <f xml:space="preserve"> SQRT((L13^2)+((L7/2)^2))</f>
+        <v>63.282432734858766</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>0.71799999999999997</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>0.82099999999999995</v>
       </c>
+      <c r="G17" s="1">
+        <f xml:space="preserve"> (0.0034669 *D17)*1000</f>
+        <v>2.1460111000000004</v>
+      </c>
+      <c r="H17" s="1">
+        <f xml:space="preserve"> (0.0034669 *E17)*1000</f>
+        <v>2.4892341999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <f xml:space="preserve"> (0.0034669 *F17)*1000</f>
+        <v>2.8463248999999999</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
+++ b/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40547C30-2A91-4B08-A4C4-D2AB73011A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2293EC-A175-42F2-BF8D-294EB8254093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F68E25A3-1614-4B4C-9D10-4D627F1CB972}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>U, kV</t>
   </si>
@@ -76,9 +76,6 @@
       </rPr>
       <t xml:space="preserve"> =cot(L/A)</t>
     </r>
-  </si>
-  <si>
-    <t>Z = sqrt(A^2 + L^2), cm</t>
   </si>
   <si>
     <r>
@@ -107,17 +104,36 @@
     </r>
   </si>
   <si>
-    <t>R = sqrt(H^2 + (Z/2)^2)</t>
-  </si>
-  <si>
     <t>B, mT</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>Z = sqrt(A^2 + L^2), mm</t>
+  </si>
+  <si>
+    <t>R = sqrt(H^2 + (Z/2)^2), mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +165,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -187,27 +211,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F13E2E1-4CF3-4388-9F96-88EFF9675606}">
-  <dimension ref="C3:L17"/>
+  <dimension ref="C3:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,8 +574,8 @@
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -547,17 +583,22 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
+      <c r="M3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="5"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,9 +626,21 @@
       <c r="L4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
+      <c r="M4" s="1">
+        <f xml:space="preserve"> SQRT((J13^2)+((J7/2)^2))</f>
+        <v>65.366898514068666</v>
+      </c>
+      <c r="N4" s="1">
+        <f xml:space="preserve"> SQRT((K13^2)+((K7/2)^2))</f>
+        <v>64.184611003943559</v>
+      </c>
+      <c r="O4" s="1">
+        <f xml:space="preserve"> SQRT((L13^2)+((L7/2)^2))</f>
+        <v>63.282432734858766</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,7 +657,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>2.4</v>
       </c>
@@ -630,12 +683,16 @@
         <v>2.0662724000000003</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f xml:space="preserve"> (EXP(1)*(65.3669^2)*(G6^2))</f>
+        <v>27893.816302644947</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>2.6</v>
       </c>
@@ -673,7 +730,7 @@
         <v>85.440037453175307</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>2.8</v>
       </c>
@@ -702,7 +759,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -727,13 +784,13 @@
         <f t="shared" si="2"/>
         <v>2.3574920000000001</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>3.2</v>
       </c>
@@ -771,7 +828,7 @@
         <v>2.5404788730243872</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>3.4</v>
       </c>
@@ -800,7 +857,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>3.6</v>
       </c>
@@ -826,12 +883,12 @@
         <v>2.5343039000000003</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>3.8</v>
       </c>
@@ -869,7 +926,7 @@
         <v>46.686896371914941</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>4</v>
       </c>
@@ -898,7 +955,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>4.2</v>
       </c>
@@ -924,12 +981,12 @@
         <v>2.7388510000000004</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -959,11 +1016,11 @@
         <v>65.366898514068666</v>
       </c>
       <c r="K16" s="1">
-        <f xml:space="preserve"> SQRT((K13^2)+((K7/2)^2))</f>
+        <f t="shared" ref="K16:L16" si="3" xml:space="preserve"> SQRT((K13^2)+((K7/2)^2))</f>
         <v>64.184611003943559</v>
       </c>
       <c r="L16" s="1">
-        <f xml:space="preserve"> SQRT((L13^2)+((L7/2)^2))</f>
+        <f t="shared" si="3"/>
         <v>63.282432734858766</v>
       </c>
     </row>
@@ -997,7 +1054,8 @@
       <c r="L17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="M3:O3"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="D3:F3"/>
@@ -1007,5 +1065,6 @@
     <mergeCell ref="J12:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
+++ b/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2293EC-A175-42F2-BF8D-294EB8254093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373B55A-0A26-42D2-A9F7-5B2D6C49F8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F68E25A3-1614-4B4C-9D10-4D627F1CB972}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{F68E25A3-1614-4B4C-9D10-4D627F1CB972}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -57,28 +57,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>β</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> =cot(L/A)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>H = (Z/2) * tan(45</t>
     </r>
     <r>
@@ -127,6 +105,28 @@
   </si>
   <si>
     <t>R = sqrt(H^2 + (Z/2)^2), mm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> =sin(L/Z)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -228,6 +228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -238,12 +244,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,42 +563,42 @@
   <dimension ref="C3:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C4" s="5"/>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,19 +628,19 @@
       </c>
       <c r="M4" s="1">
         <f xml:space="preserve"> SQRT((J13^2)+((J7/2)^2))</f>
-        <v>65.366898514068666</v>
+        <v>129.37917231810744</v>
       </c>
       <c r="N4" s="1">
         <f xml:space="preserve"> SQRT((K13^2)+((K7/2)^2))</f>
-        <v>64.184611003943559</v>
+        <v>113.39934066077345</v>
       </c>
       <c r="O4" s="1">
         <f xml:space="preserve"> SQRT((L13^2)+((L7/2)^2))</f>
-        <v>63.282432734858766</v>
-      </c>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
+        <v>104.97999202306296</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>2.4</v>
       </c>
@@ -682,17 +682,17 @@
         <f xml:space="preserve"> (0.0034669 *F6)*1000</f>
         <v>2.0662724000000003</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6">
         <f xml:space="preserve"> (EXP(1)*(65.3669^2)*(G6^2))</f>
         <v>27893.816302644947</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>2.6</v>
       </c>
@@ -730,7 +730,7 @@
         <v>85.440037453175307</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>2.8</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -784,13 +784,13 @@
         <f t="shared" si="2"/>
         <v>2.3574920000000001</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="J9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>3.2</v>
       </c>
@@ -816,19 +816,19 @@
         <v>2.4025616999999997</v>
       </c>
       <c r="J10" s="1">
-        <f xml:space="preserve"> _xlfn.COT((40/80))</f>
-        <v>1.830487721712452</v>
+        <f xml:space="preserve"> DEGREES(SIN(40/J7))</f>
+        <v>24.77783710206646</v>
       </c>
       <c r="K10" s="1">
-        <f xml:space="preserve"> _xlfn.COT((35/80))</f>
-        <v>2.1379854736346955</v>
+        <f xml:space="preserve"> DEGREES(SIN((35/K7)))</f>
+        <v>22.355232246538534</v>
       </c>
       <c r="L10" s="1">
-        <f xml:space="preserve"> _xlfn.COT((30/80))</f>
-        <v>2.5404788730243872</v>
-      </c>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> DEGREES(TAN((30/L7)))</f>
+        <v>20.987567401612889</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>3.4</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>3.6</v>
       </c>
@@ -882,13 +882,13 @@
         <f t="shared" si="2"/>
         <v>2.5343039000000003</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="J12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <v>3.8</v>
       </c>
@@ -915,18 +915,18 @@
       </c>
       <c r="J13" s="1">
         <f>((J7/2) * (TAN(RADIANS(45+J10))))</f>
-        <v>47.674221769721129</v>
+        <v>121.40416067713056</v>
       </c>
       <c r="K13" s="1">
         <f>((K7/2) * (TAN(RADIANS(45+K10))))</f>
-        <v>47.04693709188254</v>
+        <v>104.65734786577646</v>
       </c>
       <c r="L13" s="1">
         <f>((L7/2) * (TAN(RADIANS(45+L10))))</f>
-        <v>46.686896371914941</v>
-      </c>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+        <v>95.894727306366335</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>4</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>4.2</v>
       </c>
@@ -980,13 +980,13 @@
         <f t="shared" si="2"/>
         <v>2.7388510000000004</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="J15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -1013,18 +1013,18 @@
       </c>
       <c r="J16" s="1">
         <f xml:space="preserve"> SQRT((J13^2)+((J7/2)^2))</f>
-        <v>65.366898514068666</v>
+        <v>129.37917231810744</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ref="K16:L16" si="3" xml:space="preserve"> SQRT((K13^2)+((K7/2)^2))</f>
-        <v>64.184611003943559</v>
+        <v>113.39934066077345</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
-        <v>63.282432734858766</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+        <v>104.97999202306296</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>4.5999999999999996</v>
       </c>

--- a/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
+++ b/Our_Labs/Lab_8/Obliczenia_lab8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4373B55A-0A26-42D2-A9F7-5B2D6C49F8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B53748-64E1-4A8E-8994-6816A17649EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{F68E25A3-1614-4B4C-9D10-4D627F1CB972}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>U, kV</t>
-  </si>
-  <si>
-    <t>Iw, A</t>
   </si>
   <si>
     <t>L = 40 mm</t>
@@ -51,9 +48,6 @@
   </si>
   <si>
     <t>L = 30 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R = </t>
   </si>
   <si>
     <r>
@@ -128,12 +122,40 @@
       <t xml:space="preserve"> =sin(L/Z)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, A</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +189,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -562,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F13E2E1-4CF3-4388-9F96-88EFF9675606}">
   <dimension ref="C3:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,17 +605,17 @@
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -592,7 +623,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -600,31 +631,31 @@
     <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="M4" s="1">
         <f xml:space="preserve"> SQRT((J13^2)+((J7/2)^2))</f>
@@ -641,15 +672,9 @@
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -683,7 +708,7 @@
         <v>2.0662724000000003</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -785,7 +810,7 @@
         <v>2.3574920000000001</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -883,7 +908,7 @@
         <v>2.5343039000000003</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -981,7 +1006,7 @@
         <v>2.7388510000000004</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
